--- a/DTT-Assessment-Hour-Log.xlsx
+++ b/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leobo\IdeaProjects\dtt_frontend_assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A782FD32-3CD6-46DE-A36D-8085D99278DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC5980C-5F7D-4649-BD0E-169BAF3DF543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>Implemented the navigation bar, made it responsive and made the routing work. I also edited the css which wasn't complete.</t>
   </si>
   <si>
-    <t>Implemented the card component template which will contain the datas retreived from the api. I did struggle a bit to make my layout look like the model, the margins/paddings were always a bit off and the font wasn't looking the same. I eventually managed to make everything look right</t>
-  </si>
-  <si>
     <t>Setup of the base of the project : file tree, routing with the base url and /about , an empty Pinia store and an housing service containing functions to call the APIs</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>House creation API call</t>
   </si>
   <si>
-    <t>I encountered an issue due to my use of Axios, I was just putting my object formatted from the state to the body of my POST request. The server responded with the 500 error code without any other information. It did take a while before I figured out that I needed  to use a FormRequest. Eventually i did convert my existing object to an adequate FormRequest.</t>
-  </si>
-  <si>
     <t>House creation responsiveness</t>
   </si>
   <si>
@@ -139,21 +133,12 @@
     <t>Random fixes / refactoring</t>
   </si>
   <si>
-    <t>Spend some time making my components less redondant, fixed small issues like the house image on the cards which was not centered</t>
-  </si>
-  <si>
     <t>Edit page</t>
   </si>
   <si>
-    <t>Edited the house creation page to support house edition, using the route name, the text change and the selected house is loaded. Also added the background image like in the model.</t>
-  </si>
-  <si>
     <t>Form validators</t>
   </si>
   <si>
-    <t xml:space="preserve">Added validators to the form, I did struggle a lot with the validation of the image input, when editing the value retreived from the server is an url to the image but with the file input I needed a File object. I did not manage to have the file object so I left the field unrequired </t>
-  </si>
-  <si>
     <t>House detail page</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>Form validation feedback</t>
   </si>
   <si>
-    <t>I got back to the create/edit form to add more feedback for the user : each input shows an appropriate error message and styling when the value is incorrect. I also reworked the image dropzone component with a workaround the my previous issue, its validation is now handled manually.</t>
-  </si>
-  <si>
     <t>About page</t>
   </si>
   <si>
@@ -191,6 +173,24 @@
   </si>
   <si>
     <t>Fixed every remaining issues I was aware of, commented every non obvious bit of code and refactored code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added validators to the form, I did struggle a lot with the validation of the image input, when editing the value retrieved from the server is an url to the image but with the file input I needed a File object. I did not manage to have the file object so I left the field unrequired </t>
+  </si>
+  <si>
+    <t>Implemented the card component template which will contain the datas retrieved from the api. I did struggle a bit to make my layout look like the model, the margins/paddings were always a bit off and the font wasn't looking the same. I eventually managed to make everything look right</t>
+  </si>
+  <si>
+    <t>Spent some time making my components less redundant, fixed small issues like the house image on the cards which was not centered</t>
+  </si>
+  <si>
+    <t>Edited the house creation page to support house editing, using the route name, the text change and the selected house is loaded. Also added the background image like in the model.</t>
+  </si>
+  <si>
+    <t>I encountered an issue due to my use of Axios, I was just putting my object formatted from the state to the body of my POST request. The server responded with a 500 error code without any other information. It did take a while before I figured out that I needed  to use a FormRequest. Eventually i did convert my existing object to an adequate FormRequest.</t>
+  </si>
+  <si>
+    <t>I got back to the create/edit form to add more feedback for the user : each input shows an appropriate error message and styling when the value is incorrect. I also reworked the image dropzone component with a workaround for my previous issue, its validation is now handled manually.</t>
   </si>
 </sst>
 </file>
@@ -547,6 +547,9 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,9 +561,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1821,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.46484375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1836,22 +1836,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="10"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
@@ -1882,7 +1882,7 @@
         <v>45126</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="4"/>
@@ -1930,14 +1930,14 @@
         <v>45126</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="17">
         <v>2</v>
@@ -1946,14 +1946,14 @@
         <v>45127</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="17">
         <v>2</v>
@@ -1962,14 +1962,14 @@
         <v>45127</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="17">
         <v>1</v>
@@ -1978,14 +1978,14 @@
         <v>45127</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="17">
         <v>2</v>
@@ -1994,14 +1994,14 @@
         <v>45127</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="17">
         <v>3</v>
@@ -2010,14 +2010,14 @@
         <v>45127</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="17">
         <v>1</v>
@@ -2026,14 +2026,14 @@
         <v>45128</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="17">
         <v>1</v>
@@ -2042,14 +2042,14 @@
         <v>45128</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="17">
         <v>1</v>
@@ -2058,14 +2058,14 @@
         <v>45128</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="17">
         <v>3</v>
@@ -2074,14 +2074,14 @@
         <v>45129</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="17">
         <v>2</v>
@@ -2090,14 +2090,14 @@
         <v>45130</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" s="17">
         <v>1</v>
@@ -2106,14 +2106,14 @@
         <v>45130</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19" s="17">
         <v>2</v>
@@ -2122,14 +2122,14 @@
         <v>45130</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" s="17">
         <v>1</v>
@@ -2138,34 +2138,34 @@
         <v>45130</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="26">
+        <v>36</v>
+      </c>
+      <c r="B21" s="22">
         <v>1</v>
       </c>
       <c r="C21" s="18">
         <v>45131</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B22" s="17">
         <v>2</v>
@@ -2174,7 +2174,7 @@
         <v>45131</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="4"/>
